--- a/MySQL/configuration/fases_etapas.xlsx
+++ b/MySQL/configuration/fases_etapas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002020C-505A-49A7-B8B9-57E47D30D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>id_fases_etapas</t>
+  </si>
+  <si>
+    <t>id_fase_equipamiento</t>
+  </si>
+  <si>
+    <t>id_etapa</t>
+  </si>
+  <si>
+    <t>id_parametro_setpoint</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +356,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MySQL/configuration/fases_etapas.xlsx
+++ b/MySQL/configuration/fases_etapas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002020C-505A-49A7-B8B9-57E47D30D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6977B3-09B8-4A9E-B214-36FE9760C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>id_fases_etapas</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>tipo_setpoint</t>
+  </si>
+  <si>
+    <t>valor_por_defecto_setpoint</t>
   </si>
 </sst>
 </file>
@@ -357,9 +363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -367,9 +375,11 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,8 +392,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -396,8 +412,14 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -410,8 +432,14 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -424,8 +452,14 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -436,6 +470,12 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MySQL/configuration/fases_etapas.xlsx
+++ b/MySQL/configuration/fases_etapas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6977B3-09B8-4A9E-B214-36FE9760C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2656BC-C799-4810-93B4-5C7578B1BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>id_fases_etapas</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>valor_por_defecto_setpoint</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
 </sst>
 </file>
@@ -81,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,6 +483,86 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MySQL/configuration/fases_etapas.xlsx
+++ b/MySQL/configuration/fases_etapas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2656BC-C799-4810-93B4-5C7578B1BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1F795-E90C-4D20-A6C0-E70CDAB4D9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
   <si>
     <t>id_fases_etapas</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>INT</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,6 +566,66 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MySQL/configuration/fases_etapas.xlsx
+++ b/MySQL/configuration/fases_etapas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1F795-E90C-4D20-A6C0-E70CDAB4D9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B91C01-9874-4298-B7FF-38932AB57BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="9">
   <si>
     <t>id_fases_etapas</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,6 +626,166 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
